--- a/data/SKY2.xlsx
+++ b/data/SKY2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/UO/Terms/Winter 2019/R/viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E5145A-EE07-EA49-BEB3-8CA30749C0D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C8C3-5E8B-034E-8308-8683C282D8FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="3920" windowWidth="26020" windowHeight="13300" xr2:uid="{96F4598C-2CCF-C143-8F0F-A3D27F654F25}"/>
+    <workbookView xWindow="29000" yWindow="4260" windowWidth="26020" windowHeight="13300" xr2:uid="{96F4598C-2CCF-C143-8F0F-A3D27F654F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80AF151-B6A0-294E-B99B-FCC4DE41E04A}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -469,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51">
@@ -492,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="102">
@@ -512,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68">
@@ -532,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="102">
@@ -552,13 +554,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="102">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -569,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68">
@@ -592,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="153">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="136">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -612,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="68">
@@ -638,7 +640,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="85">
+    <row r="11" spans="1:6" ht="68">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>

--- a/data/SKY2.xlsx
+++ b/data/SKY2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/SKY@UO/SKY-UO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C8C3-5E8B-034E-8308-8683C282D8FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E5A5B7-27AC-E949-B7BF-A637D3505521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29000" yWindow="4260" windowWidth="26020" windowHeight="13300" xr2:uid="{96F4598C-2CCF-C143-8F0F-A3D27F654F25}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80AF151-B6A0-294E-B99B-FCC4DE41E04A}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68">
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="136">
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="68">
@@ -634,10 +634,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="68">
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
